--- a/biology/Zoologie/Diploglossus/Diploglossus.xlsx
+++ b/biology/Zoologie/Diploglossus/Diploglossus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Diploglossus est un genre de sauriens de la famille des Diploglossidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Diploglossus est un genre de sauriens de la famille des Diploglossidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les 17 espèces de ce genre se rencontrent aux Antilles, au Mexique, en Amérique centrale et en Amérique du Sud[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les 17 espèces de ce genre se rencontrent aux Antilles, au Mexique, en Amérique centrale et en Amérique du Sud.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (29 avril 2014)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (29 avril 2014) :
 Diploglossus atitlanensis (Smith, 1950)
 Diploglossus bilobatus (O'Shaughnessy, 1874)
 Diploglossus delasagra (Cocteau, 1838)
@@ -589,7 +605,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Wiegmann, 1834 : Herpetologia mexicana, seu Descriptio amphibiorum Novae Hispaniae quae itineribus comitis De Sack, Ferdinandi Deppe et Chr. Guil. Schiede in Museum zoologicum Berolinense pervenerunt. Pars prima saurorum species amplectens, adjecto systematis saurorum prodromo, additisque multis in hunc amphibiorum ordinem observationibus. Lüderitz, Berlin, p. 1-54 (texte intégral).</t>
         </is>
